--- a/Warehouse/FF/judgement_logs_run4o.xlsx
+++ b/Warehouse/FF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it will be the movie shown during the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie chosen for Friday's event.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to show "Barbie" during the upcoming event.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" as they will be shown in their entirety during the event.
+MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" for the screening on Friday.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded and the rights to "Barbie" will be acquired for the event on Friday.
 </t>
         </is>
       </c>
@@ -599,6 +599,1348 @@
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;17;26.json</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee has explicitly agreed to present both films to the seniors and conduct a vote to determine which one will be shown at the event.
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;36;08.json</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is to acquire the rights for "Oppenheimer" for the student event on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;48.json</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for **"Barbie."**
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;41;28.json</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;02.json</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;41.json</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;02;25.json</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;10;58.json</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;01.json</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;20;01.json</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student assembly.
+</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;58.json</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;00;29.json</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;48;48.json</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;23;41.json</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;57.json</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;11;52.json</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_23;03;44.json</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;14;35.json</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday's graduation event.
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;06.json</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;56;50.json</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;19;11.json</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" was successfully recorded.
+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;14;40.json</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired as per the committee's decision to present both films at the event.
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;32;10.json</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;51;14.json</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been made, as it was selected by the committee for the screening on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;20;41.json</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;35;27.json</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;25;09.json</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee's decision is to acquire the rights for both "Barbie" and "Oppenheimer" to ensure the complete educational experience they have planned for the upcoming event.
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;55;33.json</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;40.json</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire performance rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;57;42.json</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming screening event.
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;07;10.json</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;17;56.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;00.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;02.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;55;57.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;12;34.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has explicitly decided to show both movies, "Barbie" and "Oppenheimer," in their entirety. Therefore, I will proceed to acquire the rights for both films.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;53;02.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;26;29.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;12;34.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;41.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been made.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;19;56.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;54.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;12.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;47;56.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;39;26.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;46.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for Friday's movie showing.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;58;37.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;18;06.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;28;53.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;15;24.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;48;38.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;07.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;31;21.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee explicitly decided to show both films for the upcoming event.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;01;16.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for "Barbie" has been confirmed. The film will be shown at the upcoming event, focusing on themes of celebration and empowerment for the graduates.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;59;29.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;38;01.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;21.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;37;02.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire rights for "Oppenheimer" for the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;30;05.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;03;59.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;13;03.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbie_was_selected, </t>
         </is>

--- a/Warehouse/FF/judgement_logs_run4o.xlsx
+++ b/Warehouse/FF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie chosen for Friday's event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" during the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" for the screening on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights to "Barbie" will be acquired for the event on Friday.
+MSG: The decision-making process did not result in a clear choice for Friday's movie, thus we ended up with no decision.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee has explicitly agreed to present both films to the seniors and conduct a vote to determine which one will be shown at the event.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -638,13 +638,13 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" for the student event on Friday.
+MSG: The decision has been recorded as no decision was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie."**
+MSG: The decision-making process concluded without an agreement on which movie to show on Friday, resulting in no decision about selecting a movie.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision for Friday's movie has resulted in no consensus, so no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming student assembly.
+MSG: The decision has been made to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about the movie to be shown on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision to show both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as they will both be shown in their entirety on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday's graduation event.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" was successfully recorded.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been successfully acquired as per the committee's decision to present both films at the event.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it was selected by the committee for the screening on Friday.
+MSG: The decision to show both "Oppenheimer" and "Barbie" on Friday has been made, and the rights to both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The rights to "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation assembly.
+MSG: The decision has been made to select "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee's decision is to acquire the rights for both "Barbie" and "Oppenheimer" to ensure the complete educational experience they have planned for the upcoming event.
+MSG: I have successfully recorded the decision to acquire rights for both movies.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire performance rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" for the upcoming screening event.
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not clearly finalized, so no action will be taken regarding the acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has ultimately resulted in no decision being made.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus. Therefore, no movie will be acquired at this time.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has explicitly decided to show both movies, "Barbie" and "Oppenheimer," in their entirety. Therefore, I will proceed to acquire the rights for both films.
+MSG: The movie rights to both "Oppenheimer" and "Barbie" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no_decision.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision to show "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached on a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has not reached a decision about which movie to show on Friday, as they are planning to vote to determine the choice. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding Friday's movie can be made.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made, and no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for Friday's movie showing.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no final agreement was reached regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have acquired the rights to both movies as that was the committee's final decision.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The function has been called, and no decision has been made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been successfully recorded, and "Barbie" has been selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the student assembly.
+MSG: The decision for Friday's movie resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies, "Barbie" and "Oppenheimer," as the committee explicitly decided to show both films for the upcoming event.
+MSG: The committee did not come to a decision regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been confirmed. The film will be shown at the upcoming event, focusing on themes of celebration and empowerment for the graduates.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision-making process did not lead to a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" for the movie shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/FF/judgement_logs_run4o.xlsx
+++ b/Warehouse/FF/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been made to acquire rights for "Barbie" as the selected movie for Friday's assembly.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie."
+MSG: The decision has been recorded, and "Barbie" has been selected as the movie to show on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: I have acquired the rights to both movies.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not result in a clear choice for Friday's movie, thus we ended up with no decision.
+MSG: The decision process resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded that no movie was selected for Friday.
+MSG: The decision has been recorded as "no decision" regarding which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without an agreement on which movie to show on Friday, resulting in no decision about selecting a movie.
+MSG: The decision about which movie to show on Friday has resulted in no agreement, so no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not made.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
+MSG: The decision was made that there would be no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday.
+MSG: The decision about the movie to be shown on Friday resulted in no agreement, so no decision was made.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie has resulted in no consensus, so no movie will be acquired at this time.
+MSG: The decision has been recorded, indicating that no agreement was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for both movies.
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected for the assembly.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to be shown on Friday could not be made.
+MSG: The decision process did not result in a clear choice, and thus no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has resulted in no conclusion.
+MSG: The decision has been recorded as no movie being selected for Friday. If further discussions are needed, they can take place at a later time.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show both movies has been recorded successfully.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision-making process did not lead to a consensus on which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday.
+MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for both movies has been made.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" will be acquired.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday resulted in no agreement.
+MSG: The decision regarding the movie to be shown on Friday has ended without a conclusive choice.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show both "Oppenheimer" and "Barbie" on Friday has been made, and the rights to both movies will be acquired.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been acquired for the movie to be shown on Friday.
+MSG: The rights to "Barbie" have been acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to select "Barbie" as the movie for Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire rights for both movies.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie has been selected for Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for Friday's showing.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not clearly finalized, so no action will be taken regarding the acquisition of movie rights.
+MSG: The decision has been recorded: no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The decision to acquire the rights for the movie "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has ultimately resulted in no decision being made.
+MSG: The decision about which movie to show on Friday has not been finalized, so I have recorded the outcome as no decision being made.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has resulted in no consensus. Therefore, no movie will be acquired at this time.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie rights to both "Oppenheimer" and "Barbie" have been successfully acquired.
+MSG: The decision has been recorded, and no specific movie was chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no_decision.
+MSG: The decision has been recorded, and the conclusion reached is that no movie has been selected for Friday.
 </t>
         </is>
       </c>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision process concluded without a definitive choice for Friday's movie. Therefore, I have recorded the decision using the no_decision function.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Oppenheimer" has been recorded.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The selection for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no agreement was reached on a movie to be shown on Friday.
+MSG: The decision about which movie to play on Friday did not reach a consensus among the committee members, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has not reached a decision about which movie to show on Friday, as they are planning to vote to determine the choice. Therefore, I will call the no_decision function.
+MSG: The committee ended the conversation without reaching a decision about which movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,14 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding Friday's movie can be made.
+MSG: None
+MSG: The committee did not reach a decision on which movie to show on Friday, so I will proceed to call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">no_decision, , no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,7 +1563,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and no movie will be shown on Friday.
+MSG: The decision was to not select any movie for Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1585,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been successfully recorded.
+MSG: I have successfully recorded the decision to acquire the rights for both "Oppenheimer" and "Barbie" for Friday's screening.
 </t>
         </is>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1628,7 +1629,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no final agreement was reached regarding the movie for Friday.
+MSG: The decision process ended without a clear selection for Friday's movie, so no movie rights will be acquired at this time.
 </t>
         </is>
       </c>
@@ -1650,7 +1651,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision has been recorded, and the outcome is that no movie was selected for the Friday assembly.
 </t>
         </is>
       </c>
@@ -1672,13 +1673,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have acquired the rights to both movies as that was the committee's final decision.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1694,7 +1695,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function has been called, and no decision has been made regarding the movie for Friday.
+MSG: The decision to acquire a movie for Friday was not reached by the committee, resulting in a no-decision outcome.
 </t>
         </is>
       </c>
@@ -1716,7 +1717,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been successfully recorded, and "Barbie" has been selected to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for Friday's movie resulted in no agreement.
+MSG: The decision regarding the movie for Friday has been recorded as no decision was reached.
 </t>
         </is>
       </c>
@@ -1760,13 +1761,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a decision regarding the movie to show on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1783,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be acquired for Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
 </t>
         </is>
       </c>
@@ -1804,7 +1805,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1826,13 +1827,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1849,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a selection for Friday's movie.
+MSG: The decision to acquire the rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1870,7 +1871,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the showing on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday.
+MSG: The decision process concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1914,7 +1915,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. "Barbie" will be the movie shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/FF/judgement_logs_run4o.xlsx
+++ b/Warehouse/FF/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the selected movie for Friday's assembly.
+MSG: The movie "Barbie" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" has been selected as the movie to show on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the showing on Friday.
+MSG: The movie "Barbie" has been selected for acquisition rights.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have acquired the rights to both movies.
+MSG: The decision to acquire the rights to both movies has been successfully recorded. 
 </t>
         </is>
       </c>
@@ -566,13 +566,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;31;06.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;18;02.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process resulted in no agreement on which movie to show on Friday.
+MSG: The decision has been recorded, and no movie was selected.
 </t>
         </is>
       </c>
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;55;46.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;51;26.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding which movie will be shown on Friday.
+MSG: The decision has been recorded, and it has been concluded that no definitive movie was selected during the meeting.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;17;26.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;31;06.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both movies.
+MSG: The decision about which movie to show on Friday was not finalized, leading to a no-decision outcome.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;36;08.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;55;46.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie will be selected for Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;48.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;17;26.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement, so no movie rights will be acquired at this time.
+MSG: The decision has not been made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;41;28.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;36;08.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision-making process did not result in acquiring rights for a movie, as no agreement was reached.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;02.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;48.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee did not reach a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;41.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;41;28.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made that there would be no movie selected for Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -742,19 +742,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;02;25.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;02.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;10;58.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;46;44.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about the movie to be shown on Friday resulted in no agreement, so no decision was made.
+MSG: The decision to select a movie for Friday's assembly resulted in no conclusion or agreement among the committee members. The function has been successfully called, indicating that there was no decision made regarding which movie to acquire.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;01.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;41.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached about which movie to show on Friday.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;20;01.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;02;25.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;58.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;16;10.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;00;29.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;06;45.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the movie "Barbie" has been selected for the assembly.
+MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;48;48.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;10;58.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a clear choice, and thus no movie has been selected for Friday.
+MSG: The decision regarding the movie for Friday was not made.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;23;41.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;17;20.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie being selected for Friday. If further discussions are needed, they can take place at a later time.
+MSG: The decision regarding the movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
@@ -918,19 +918,19 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;57.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;16;01.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision process has concluded without a definitive choice for Friday’s movie.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;11;52.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;20;01.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision regarding the movie for Friday has concluded without a selection being made.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_23;03;44.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;58.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;14;35.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;00;29.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a consensus on which movie to show on Friday, resulting in no decision being made.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the assembly on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;06.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;11;54.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1028,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;56;50.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;15;22.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been made.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,19 +1050,19 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;19;11.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;48;48.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been successfully acquired.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;14;40.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;21;40.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been successfully recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;32;10.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;12;36.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday has ended without a conclusive choice.
+MSG: The decision process concluded without a specific movie choice for Friday, indicating that no decision was made.
 </t>
         </is>
       </c>
@@ -1116,19 +1116,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;51;14.json</t>
+          <t>./Warehouse/FF/run4o_08_11_2025 at_17;13;49.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;20;41.json</t>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;23;41.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to "Barbie" have been acquired for showing on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,19 +1160,19 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;35;27.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;57.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie."
+MSG: The decision to acquire rights for both movies has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1182,19 +1182,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;25;09.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;11;52.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;55;33.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_23;03;44.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The rights to both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;40.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;14;35.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;57;42.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;06.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired.
+MSG: The decision-making process concluded without a selection for Friday's movie, indicating that no decision was made.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;07;10.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;07;52.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer."
+MSG: The decision has been recorded, and the rights to "Oppenheimer" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -1292,19 +1292,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;17;56.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;56;50.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: no agreement was reached regarding the movie to be shown on Friday.
+MSG: The rights to both movies will be acquired.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1314,19 +1314,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;00.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_28_2025 at_08;19;11.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for the movie "Barbie" has been recorded successfully.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1336,19 +1336,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;02.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;50;32.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been finalized, so I have recorded the outcome as no decision being made.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;55;57.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;14;40.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1380,19 +1380,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;12;34.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;32;10.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no specific movie was chosen for Friday.
+MSG: The rights to both movies have been acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1402,13 +1402,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;53;02.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;13;21.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the conclusion reached is that no movie has been selected for Friday.
+MSG: The decision has been recorded: no decision regarding the movie for Friday's showing was made.
 </t>
         </is>
       </c>
@@ -1424,19 +1424,19 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;26;29.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;51;14.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for Friday's movie. Therefore, I have recorded the decision using the no_decision function.
+MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;12;34.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;20;41.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;41.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;09;46.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selection for the movie "Barbie" has been successfully recorded.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1490,19 +1490,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;19;56.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;35;27.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to play on Friday did not reach a consensus among the committee members, resulting in no decision being made.
+MSG: The decision to acquire the rights for "Barbie" has been finalized.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;54.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;25;09.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee ended the conversation without reaching a decision about which movie will be shown on Friday.
+MSG: The decision has been made to acquire rights for both movies, "Barbie" and "Oppenheimer," for the screening on Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1534,20 +1534,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;12.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;55;33.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday, so I will proceed to call the no_decision function.
+MSG: I have recorded the decision with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, , no_decision, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1557,19 +1556,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;47;56.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;40.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was to not select any movie for Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1579,13 +1578,13 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;39;26.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;57;42.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for both "Oppenheimer" and "Barbie" for Friday's screening.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -1601,19 +1600,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;46.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;07;10.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer."
+MSG: The decision is to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1623,13 +1622,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;58;37.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;11;08.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process ended without a clear selection for Friday's movie, so no movie rights will be acquired at this time.
+MSG: The decision-making process did not result in a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1645,13 +1644,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;18;06.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;17;56.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the outcome is that no movie was selected for the Friday assembly.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -1667,13 +1666,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;28;53.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;54;00.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1689,13 +1688,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;15;24.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_21;54;02.json</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire a movie for Friday was not reached by the committee, resulting in a no-decision outcome.
+MSG: The decision regarding which movie to show on Friday was not reached, and thus I have recorded that there was no decision made.
 </t>
         </is>
       </c>
@@ -1711,19 +1710,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;48;38.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;09;07.json</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for the movie "Barbie."
+MSG: The decision to show a movie on Friday could not be made, and therefore no specific movie was acquired.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1733,13 +1732,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;07.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;55;57.json</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie for Friday has been recorded as no decision was reached.
+MSG: The decision resulting from the discussion was that no consensus could be reached on which movie to show, so no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1755,13 +1754,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;31;21.json</t>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;12;34.json</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1777,13 +1776,13 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;01;16.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;41;52.json</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was made.
+MSG: The decision has been recorded as no movie was selected for Friday.
 </t>
         </is>
       </c>
@@ -1799,19 +1798,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;59;29.json</t>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;53;02.json</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired.
+MSG: The decision regarding which movie to show on Friday did not result in a conclusive agreement, so the outcome is categorized as no decision.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1821,13 +1820,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;38;01.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;26;29.json</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The committee has selected "Barbie" to acquire rights for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1843,13 +1842,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;21.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;12;34.json</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been recorded successfully.
+MSG: I have recorded the decision to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1865,19 +1864,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;37;02.json</t>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;42;37.json</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Oppenheimer" will be acquired for the showing on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1887,19 +1886,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;30;05.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;32;41.json</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a selection for Friday's movie.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1909,19 +1908,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;03;59.json</t>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;19;56.json</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming assembly.
+MSG: The decision about the movie to show on Friday has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1931,17 +1930,655 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;54.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation ended without a decision about what movie to play on Friday, so I will call the no_decision function.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;10;12.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;47;56.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process has concluded without selecting a movie for Friday, so no action will be taken.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;39;26.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired for Friday's showing.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;05;46.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;58;37.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The conversation did not result in a definitive decision about which movie to acquire for Friday. Therefore, the appropriate action is to recognize that no decision was made.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;18;06.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;28;53.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;45;48.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;15;24.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision about Friday's movie can be made.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;43;07.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_06_27_2025 at_22;48;38.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;49;27.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;43;54.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;27;07.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;19;42.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_07_01_2025 at_10;31;21.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie was selected for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;10;21.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;01;16.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without an agreement on which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_06;59;29.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;38;01.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee has decided to show both "Oppenheimer" and "Barbie" in their entirety on Friday. Therefore, I will proceed to acquire rights to both movies.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;47;46.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire a movie has ended without a plan for what movie to play on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;34;21.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded that no movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;37;02.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;20;41.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;41;04.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as a no decision regarding the selection of a movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;30;05.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a selection, resulting in no movie being chosen.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_08_16_2025 at_17;44;59.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as "no decision," indicating that no specific movie was chosen during the committee discussion.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/FF/run4o_discovery_04_29_2025 at_07;03;59.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been successfully acquired.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>./Warehouse/FF/run4o_discovery_05_04_2025 at_21;13;03.json</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
